--- a/SearchEngineEvaluation.xlsx
+++ b/SearchEngineEvaluation.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" r:id="rId3" sheetId="1"/>
+    <sheet name="cacm" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -138,55 +138,187 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="n">
+        <v>1.1099128540305014</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.7894484264293955</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9702541603276897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="n">
+        <v>2.277703081232493</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.904947273026857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5019501903325434</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="n">
+        <v>2.2119245133951013</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.445593815066135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0547777957336795</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="n">
+        <v>2.176439464674759</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.190900707243816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.849118938859425</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="n">
+        <v>2.5131758764111702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.284012796123523</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.346523524815521</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="n">
+        <v>1.482549019607843</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.888382487606755</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.211453352111569</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.6931372549019608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.123055023157765</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.499118072683963</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.792156862745098</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.29193908220023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.131300553742445</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.783318691112807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.776817381964435</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.332570806100216</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.256055363321801</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/SearchEngineEvaluation.xlsx
+++ b/SearchEngineEvaluation.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cacm" r:id="rId3" sheetId="1"/>
+    <sheet name="cisi" r:id="rId3" sheetId="1"/>
+    <sheet name="cacm" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>0.0</t>
   </si>
@@ -156,13 +157,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1099128540305014</v>
+        <v>1.3239172919672921</v>
       </c>
       <c r="C3" t="n">
-        <v>1.7894484264293955</v>
+        <v>1.326527671053415</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9702541603276897</v>
+        <v>0.881824136195189</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -173,13 +174,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.277703081232493</v>
+        <v>2.700261158037878</v>
       </c>
       <c r="C4" t="n">
-        <v>3.904947273026857</v>
+        <v>2.953763608783484</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5019501903325434</v>
+        <v>2.1787529840664095</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -190,13 +191,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.2119245133951013</v>
+        <v>2.6617520121746208</v>
       </c>
       <c r="C5" t="n">
-        <v>6.445593815066135</v>
+        <v>5.105439038303425</v>
       </c>
       <c r="D5" t="n">
-        <v>4.0547777957336795</v>
+        <v>3.7372490022778195</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -207,13 +208,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.176439464674759</v>
+        <v>1.9768036693434794</v>
       </c>
       <c r="C6" t="n">
-        <v>8.190900707243816</v>
+        <v>8.091827758372435</v>
       </c>
       <c r="D6" t="n">
-        <v>5.849118938859425</v>
+        <v>5.981278683820555</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -224,13 +225,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.5131758764111702</v>
+        <v>1.8677720266850701</v>
       </c>
       <c r="C7" t="n">
-        <v>11.284012796123523</v>
+        <v>11.247713735472372</v>
       </c>
       <c r="D7" t="n">
-        <v>7.346523524815521</v>
+        <v>9.424235077325807</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -241,13 +242,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.482549019607843</v>
+        <v>1.4071999999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>14.888382487606755</v>
+        <v>14.845261969572414</v>
       </c>
       <c r="D8" t="n">
-        <v>10.211453352111569</v>
+        <v>12.395271000599921</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -258,13 +259,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6931372549019608</v>
+        <v>1.5568</v>
       </c>
       <c r="C9" t="n">
-        <v>16.123055023157765</v>
+        <v>18.659576809344046</v>
       </c>
       <c r="D9" t="n">
-        <v>13.499118072683963</v>
+        <v>15.658619959948686</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -275,13 +276,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.792156862745098</v>
+        <v>1.7792</v>
       </c>
       <c r="C10" t="n">
-        <v>19.29193908220023</v>
+        <v>22.438301586142696</v>
       </c>
       <c r="D10" t="n">
-        <v>20.131300553742445</v>
+        <v>19.791503452963497</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -292,13 +293,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6352941176470588</v>
+        <v>1.896</v>
       </c>
       <c r="C11" t="n">
-        <v>9.783318691112807</v>
+        <v>24.106986462136486</v>
       </c>
       <c r="D11" t="n">
-        <v>14.776817381964435</v>
+        <v>22.67892158305917</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -309,13 +310,237 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>2.1066666666666665</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17.204165853068027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.36323262514613</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.25390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.4921875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.3231107998755056</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.7943410501455483</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8594999009704892</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.23718473247885</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.9242173058263026</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.1499869846928665</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.403038497450262</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.426349938028142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.679724706281799</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.6450198167845236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.220522979586903</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.507934981065716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.8397247360482654</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.339968645829373</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.954832307170223</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.683333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.097885767810636</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.780770958294221</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6965686274509804</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.11897943926195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.836528180452952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7960784313725489</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18.38178023447857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.47362278131076</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6352941176470588</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.396431436210843</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.131300562182915</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.7058823529411765</v>
       </c>
       <c r="C12" t="n">
-        <v>10.332570806100216</v>
+        <v>10.358169934640523</v>
       </c>
       <c r="D12" t="n">
-        <v>12.256055363321801</v>
+        <v>14.278386518005897</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>

--- a/SearchEngineEvaluation.xlsx
+++ b/SearchEngineEvaluation.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cisi" r:id="rId3" sheetId="1"/>
-    <sheet name="cacm" r:id="rId4" sheetId="2"/>
+    <sheet name="cacm" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>0.0</t>
   </si>
@@ -140,13 +139,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>10.332570806100216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>12.256055363321801</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -157,13 +156,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3239172919672921</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="C3" t="n">
-        <v>1.326527671053415</v>
+        <v>9.783318691112807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.881824136195189</v>
+        <v>14.776817381964435</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -174,13 +173,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.700261158037878</v>
+        <v>0.792156862745098</v>
       </c>
       <c r="C4" t="n">
-        <v>2.953763608783484</v>
+        <v>19.29193908220023</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1787529840664095</v>
+        <v>20.131300553742445</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -191,13 +190,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.6617520121746208</v>
+        <v>0.6931372549019608</v>
       </c>
       <c r="C5" t="n">
-        <v>5.105439038303425</v>
+        <v>16.123055023157765</v>
       </c>
       <c r="D5" t="n">
-        <v>3.7372490022778195</v>
+        <v>13.499118072683963</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -208,13 +207,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9768036693434794</v>
+        <v>1.482549019607843</v>
       </c>
       <c r="C6" t="n">
-        <v>8.091827758372435</v>
+        <v>14.888382487606755</v>
       </c>
       <c r="D6" t="n">
-        <v>5.981278683820555</v>
+        <v>10.211453352111569</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -225,13 +224,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8677720266850701</v>
+        <v>2.5131758764111702</v>
       </c>
       <c r="C7" t="n">
-        <v>11.247713735472372</v>
+        <v>11.284012796123523</v>
       </c>
       <c r="D7" t="n">
-        <v>9.424235077325807</v>
+        <v>7.346523524815521</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -242,13 +241,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.4071999999999998</v>
+        <v>2.176439464674759</v>
       </c>
       <c r="C8" t="n">
-        <v>14.845261969572414</v>
+        <v>8.190900707243816</v>
       </c>
       <c r="D8" t="n">
-        <v>12.395271000599921</v>
+        <v>5.849118938859425</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -259,13 +258,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5568</v>
+        <v>2.2119245133951013</v>
       </c>
       <c r="C9" t="n">
-        <v>18.659576809344046</v>
+        <v>6.445593815066135</v>
       </c>
       <c r="D9" t="n">
-        <v>15.658619959948686</v>
+        <v>4.0547777957336795</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -276,13 +275,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.7792</v>
+        <v>2.277703081232493</v>
       </c>
       <c r="C10" t="n">
-        <v>22.438301586142696</v>
+        <v>3.904947273026857</v>
       </c>
       <c r="D10" t="n">
-        <v>19.791503452963497</v>
+        <v>2.5019501903325434</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -293,13 +292,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.896</v>
+        <v>1.1099128540305014</v>
       </c>
       <c r="C11" t="n">
-        <v>24.106986462136486</v>
+        <v>1.7894484264293955</v>
       </c>
       <c r="D11" t="n">
-        <v>22.67892158305917</v>
+        <v>0.9702541603276897</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -310,237 +309,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1066666666666665</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="n">
-        <v>17.204165853068027</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>18.36323262514613</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.25390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="21.4921875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.3231107998755056</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.7943410501455483</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8594999009704892</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.23718473247885</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.9242173058263026</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.1499869846928665</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.403038497450262</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6.426349938028142</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.679724706281799</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.6450198167845236</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.220522979586903</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.507934981065716</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.8397247360482654</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.339968645829373</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.954832307170223</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.683333333333333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15.097885767810636</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.780770958294221</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6965686274509804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16.11897943926195</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.836528180452952</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7960784313725489</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18.38178023447857</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19.47362278131076</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6352941176470588</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.396431436210843</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.131300562182915</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10.358169934640523</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.278386518005897</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>

--- a/SearchEngineEvaluation.xlsx
+++ b/SearchEngineEvaluation.xlsx
@@ -139,16 +139,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.3056917841411696</v>
       </c>
       <c r="C2" t="n">
-        <v>10.332570806100216</v>
+        <v>0.19004975758654954</v>
       </c>
       <c r="D2" t="n">
-        <v>12.256055363321801</v>
+        <v>0.3105475711867876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="3">
@@ -156,13 +156,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6352941176470588</v>
+        <v>0.22967049759269012</v>
       </c>
       <c r="C3" t="n">
-        <v>9.783318691112807</v>
+        <v>0.1469437194817654</v>
       </c>
       <c r="D3" t="n">
-        <v>14.776817381964435</v>
+        <v>0.19835333156217488</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -173,13 +173,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.792156862745098</v>
+        <v>0.15934949044364957</v>
       </c>
       <c r="C4" t="n">
-        <v>19.29193908220023</v>
+        <v>0.13533433364585043</v>
       </c>
       <c r="D4" t="n">
-        <v>20.131300553742445</v>
+        <v>0.1662697342269363</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -190,13 +190,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6931372549019608</v>
+        <v>0.11665954853095233</v>
       </c>
       <c r="C5" t="n">
-        <v>16.123055023157765</v>
+        <v>0.10995000409339171</v>
       </c>
       <c r="D5" t="n">
-        <v>13.499118072683963</v>
+        <v>0.14845486638948568</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -207,13 +207,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.482549019607843</v>
+        <v>0.059403559208516754</v>
       </c>
       <c r="C6" t="n">
-        <v>14.888382487606755</v>
+        <v>0.09281098786351843</v>
       </c>
       <c r="D6" t="n">
-        <v>10.211453352111569</v>
+        <v>0.13226202899842388</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -224,13 +224,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.5131758764111702</v>
+        <v>0.03847055248979347</v>
       </c>
       <c r="C7" t="n">
-        <v>11.284012796123523</v>
+        <v>0.06949100703681257</v>
       </c>
       <c r="D7" t="n">
-        <v>7.346523524815521</v>
+        <v>0.10540983581484092</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -241,13 +241,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.176439464674759</v>
+        <v>0.020451827141968817</v>
       </c>
       <c r="C8" t="n">
-        <v>8.190900707243816</v>
+        <v>0.04957719781916499</v>
       </c>
       <c r="D8" t="n">
-        <v>5.849118938859425</v>
+        <v>0.0908345705269035</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -258,13 +258,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.2119245133951013</v>
+        <v>0.005273833671399594</v>
       </c>
       <c r="C9" t="n">
-        <v>6.445593815066135</v>
+        <v>0.03608856377862271</v>
       </c>
       <c r="D9" t="n">
-        <v>4.0547777957336795</v>
+        <v>0.06482016861223727</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -275,13 +275,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.277703081232493</v>
+        <v>0.005273833671399594</v>
       </c>
       <c r="C10" t="n">
-        <v>3.904947273026857</v>
+        <v>0.02490732757116958</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5019501903325434</v>
+        <v>0.0459711296480732</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -292,13 +292,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1099128540305014</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="C11" t="n">
-        <v>1.7894484264293955</v>
+        <v>0.010512089585800877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9702541603276897</v>
+        <v>0.019436082153444532</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -309,13 +309,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>0.008449843877761445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>0.012863042518544652</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>

--- a/SearchEngineEvaluation.xlsx
+++ b/SearchEngineEvaluation.xlsx
@@ -6,13 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cacm" r:id="rId3" sheetId="1"/>
+    <sheet name="cisi" r:id="rId3" sheetId="1"/>
+    <sheet name="cacm" r:id="rId4" sheetId="2"/>
+    <sheet name="med" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>0.0</t>
   </si>
@@ -139,16 +141,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3056917841411696</v>
+        <v>0.398114034963909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19004975758654954</v>
+        <v>0.44462507477789454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3105475711867876</v>
+        <v>0.5759241082625547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.013333333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -156,13 +158,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22967049759269012</v>
+        <v>0.20764414538358603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1469437194817654</v>
+        <v>0.25096661123786274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19835333156217488</v>
+        <v>0.38713943986015736</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
@@ -173,13 +175,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.15934949044364957</v>
+        <v>0.13431683514684034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13533433364585043</v>
+        <v>0.2012770264809488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1662697342269363</v>
+        <v>0.3010666749440642</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
@@ -190,13 +192,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11665954853095233</v>
+        <v>0.06878216896598265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10995000409339171</v>
+        <v>0.15974367041792653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14845486638948568</v>
+        <v>0.24810637220840073</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
@@ -207,13 +209,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.059403559208516754</v>
+        <v>0.031073743761830332</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09281098786351843</v>
+        <v>0.12239119902755038</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13226202899842388</v>
+        <v>0.2061277310664837</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
@@ -224,13 +226,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03847055248979347</v>
+        <v>0.017466380098001656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06949100703681257</v>
+        <v>0.10768206671044697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10540983581484092</v>
+        <v>0.16398592258337866</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -241,13 +243,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.020451827141968817</v>
+        <v>0.003334014905544535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04957719781916499</v>
+        <v>0.08801766495825127</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0908345705269035</v>
+        <v>0.13046553810522732</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
@@ -258,13 +260,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005273833671399594</v>
+        <v>0.0018620992534036011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03608856377862271</v>
+        <v>0.07254598811947224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06482016861223727</v>
+        <v>0.09606978131979323</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
@@ -275,13 +277,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005273833671399594</v>
+        <v>0.0018620992534036011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02490732757116958</v>
+        <v>0.05659830816884965</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0459711296480732</v>
+        <v>0.07134447799677235</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -292,13 +294,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00392156862745098</v>
+        <v>3.469477382520861E-4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.010512089585800877</v>
+        <v>0.03598527482105004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019436082153444532</v>
+        <v>0.04139208019392818</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
@@ -309,6 +311,230 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>3.469477382520861E-4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0076439110131920444</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.013088934860989786</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.25390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.4921875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3056917841411696</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.19004975758654954</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3105475711867876</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.22967049759269012</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1469437194817654</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19835333156217488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.15934949044364957</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.13533433364585043</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1662697342269363</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.11665954853095233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.10995000409339171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14845486638948568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.059403559208516754</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09281098786351843</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13226202899842388</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03847055248979347</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06949100703681257</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.10540983581484092</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.020451827141968817</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04957719781916499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0908345705269035</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.005273833671399594</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03608856377862271</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06482016861223727</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.005273833671399594</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02490732757116958</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0459711296480732</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.00392156862745098</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.010512089585800877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.019436082153444532</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.00392156862745098</v>
       </c>
       <c r="C12" t="n">
@@ -316,6 +542,230 @@
       </c>
       <c r="D12" t="n">
         <v>0.012863042518544652</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.25390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.4921875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8722222222222222</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8236185925387377</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9058777429467085</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7145370496569897</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7164027560125564</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7929309196550576</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.556387456456664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6079035777444457</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7052317020369758</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4775784726406505</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5569161077787811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.645093341625831</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4189677870049033</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4623949275873674</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5490766712636764</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.28614777451296547</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3625048835480036</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44880007194249066</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.20059623118945538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3261203006307802</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.40151449082250146</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.09527215642463442</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2701815683820653</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.33829781668776865</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03054491272882077</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.225737154873351</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2718428472158318</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.016556593724320542</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.11568135824356798</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.13003760309554402</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.030528899439434598</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04830419947459363</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
